--- a/data/peer mock 4.xlsx
+++ b/data/peer mock 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unesco-my.sharepoint.com/personal/ac_daddio_unesco_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{CAC8B8CD-78EA-4C68-9D8B-5B3169FE4035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6668BED7-47E8-4AA5-8B5E-08799A170CA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1103E152-8856-4FAD-9F7B-29A62E5C5F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D32DF37B-2E3D-425B-BDE4-FC1E624AEA2C}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>Sabour, Amina</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{9D3FB89C-7DBB-47BA-9E96-F5B582C8B05D}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9D3FB89C-7DBB-47BA-9E96-F5B582C8B05D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 It will be probably 100% for all</t>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
     Done, the answer is1</t>
       </text>
     </comment>
-    <comment ref="N5" authorId="2" shapeId="0" xr:uid="{82FBCC3E-2F4C-477A-A33B-7F701D115314}">
+    <comment ref="O5" authorId="2" shapeId="0" xr:uid="{82FBCC3E-2F4C-477A-A33B-7F701D115314}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
     Only about information on the school</t>
       </text>
     </comment>
-    <comment ref="P7" authorId="3" shapeId="0" xr:uid="{00A17B35-5AFF-4852-9AE4-7392DB0B74D4}">
+    <comment ref="Q7" authorId="3" shapeId="0" xr:uid="{00A17B35-5AFF-4852-9AE4-7392DB0B74D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +81,7 @@
     Could you recheck? Should be a 1 since variable 13 is answered.</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="4" shapeId="0" xr:uid="{EA37E305-04B0-496F-8F5D-8F9B435A0211}">
+    <comment ref="B16" authorId="4" shapeId="0" xr:uid="{EA37E305-04B0-496F-8F5D-8F9B435A0211}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
     secondary education level laws/regulations apply to non-state schools only (nearly all secondary schools are non-state), so have mapped '..' for questions that specify secondary level </t>
       </text>
     </comment>
-    <comment ref="I18" authorId="5" shapeId="0" xr:uid="{96186080-FC7E-42FB-8EBB-11692D50A66F}">
+    <comment ref="J18" authorId="5" shapeId="0" xr:uid="{96186080-FC7E-42FB-8EBB-11692D50A66F}">
       <text/>
     </comment>
   </commentList>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Country</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>qualifications and degrees</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Financing</t>
   </si>
 </sst>
 </file>
@@ -852,23 +858,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="P1" dT="2024-02-29T17:28:41.31" personId="{C177625F-33AC-4846-B1C5-4BA8C775EF7A}" id="{9D3FB89C-7DBB-47BA-9E96-F5B582C8B05D}">
+  <threadedComment ref="Q1" dT="2024-02-29T17:28:41.31" personId="{C177625F-33AC-4846-B1C5-4BA8C775EF7A}" id="{9D3FB89C-7DBB-47BA-9E96-F5B582C8B05D}">
     <text>This variable at the end of the day is not very useful
 It will be probably 100% for all</text>
   </threadedComment>
-  <threadedComment ref="P2" dT="2024-05-13T12:14:19.82" personId="{34371B5B-8967-4373-B442-7C33E0F90D43}" id="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
+  <threadedComment ref="Q2" dT="2024-05-13T12:14:19.82" personId="{34371B5B-8967-4373-B442-7C33E0F90D43}" id="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
     <text>Could you recheck? Should be a 1 since variable 13 is answered.</text>
   </threadedComment>
-  <threadedComment ref="P2" dT="2024-08-14T02:41:39.45" personId="{61F17C13-AC85-467A-8E8C-08AB4EE75DD4}" id="{71721B8E-9FCB-4E3D-B5E4-68E0E84DEC5A}" parentId="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
+  <threadedComment ref="Q2" dT="2024-08-14T02:41:39.45" personId="{61F17C13-AC85-467A-8E8C-08AB4EE75DD4}" id="{71721B8E-9FCB-4E3D-B5E4-68E0E84DEC5A}" parentId="{CC554DC4-891F-4EC4-AC1D-265B186E8724}">
     <text>Done, the answer is1</text>
   </threadedComment>
-  <threadedComment ref="N5" dT="2024-08-06T23:31:34.37" personId="{73D16645-F1B7-4758-9F51-8CE03B6F78B2}" id="{82FBCC3E-2F4C-477A-A33B-7F701D115314}">
+  <threadedComment ref="O5" dT="2024-08-06T23:31:34.37" personId="{73D16645-F1B7-4758-9F51-8CE03B6F78B2}" id="{82FBCC3E-2F4C-477A-A33B-7F701D115314}">
     <text>Only about information on the school</text>
   </threadedComment>
-  <threadedComment ref="P7" dT="2024-05-13T12:14:33.22" personId="{34371B5B-8967-4373-B442-7C33E0F90D43}" id="{00A17B35-5AFF-4852-9AE4-7392DB0B74D4}">
+  <threadedComment ref="Q7" dT="2024-05-13T12:14:33.22" personId="{34371B5B-8967-4373-B442-7C33E0F90D43}" id="{00A17B35-5AFF-4852-9AE4-7392DB0B74D4}">
     <text>Could you recheck? Should be a 1 since variable 13 is answered.</text>
   </threadedComment>
-  <threadedComment ref="A16" dT="2024-05-17T06:23:29.02" personId="{52281BE9-827F-40B1-82CE-16D2ABE60068}" id="{EA37E305-04B0-496F-8F5D-8F9B435A0211}">
+  <threadedComment ref="B16" dT="2024-05-17T06:23:29.02" personId="{52281BE9-827F-40B1-82CE-16D2ABE60068}" id="{EA37E305-04B0-496F-8F5D-8F9B435A0211}">
     <text xml:space="preserve">secondary education level laws/regulations apply to non-state schools only (nearly all secondary schools are non-state), so have mapped '..' for questions that specify secondary level </text>
   </threadedComment>
 </ThreadedComments>
@@ -876,84 +882,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8BA48F-630F-4002-AF01-0F71B0682EA8}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:17" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
       <c r="H2" s="9">
         <v>1</v>
       </c>
@@ -961,49 +970,52 @@
         <v>1</v>
       </c>
       <c r="J2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="9">
         <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
       <c r="H3" s="9">
         <v>1</v>
       </c>
@@ -1031,38 +1043,41 @@
       <c r="P3" s="9">
         <v>1</v>
       </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
       <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
       <c r="K4" s="9">
         <v>1</v>
       </c>
@@ -1081,40 +1096,43 @@
       <c r="P4" s="9">
         <v>1</v>
       </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
       <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
       <c r="K5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="13">
         <v>0</v>
@@ -1123,46 +1141,49 @@
         <v>0</v>
       </c>
       <c r="N5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
       <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
       <c r="K6" s="9">
         <v>1</v>
       </c>
@@ -1170,49 +1191,52 @@
         <v>1</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="9">
         <v>1</v>
       </c>
       <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
       <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
       <c r="K7" s="9">
         <v>1</v>
       </c>
@@ -1220,40 +1244,43 @@
         <v>1</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="13">
-        <v>999</v>
-      </c>
       <c r="H8" s="13">
         <v>999</v>
       </c>
@@ -1261,10 +1288,10 @@
         <v>999</v>
       </c>
       <c r="J8" s="13">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K8" s="13">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L8" s="13">
         <v>999</v>
@@ -1281,46 +1308,49 @@
       <c r="P8" s="13">
         <v>999</v>
       </c>
+      <c r="Q8" s="13">
+        <v>999</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
       <c r="K9" s="13">
         <v>1</v>
       </c>
       <c r="L9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="13">
         <v>1</v>
@@ -1331,31 +1361,34 @@
       <c r="P9" s="13">
         <v>1</v>
       </c>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>9</v>
+      <c r="H10" s="13">
+        <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>9</v>
@@ -1363,8 +1396,8 @@
       <c r="J10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="13">
-        <v>0</v>
+      <c r="K10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -1379,42 +1412,45 @@
         <v>0</v>
       </c>
       <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
       <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="13">
-        <v>999</v>
-      </c>
       <c r="J11" s="13">
         <v>999</v>
       </c>
       <c r="K11" s="13">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="L11" s="13">
         <v>1</v>
@@ -1429,40 +1465,43 @@
         <v>1</v>
       </c>
       <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="13">
-        <v>1</v>
-      </c>
       <c r="K12" s="13">
         <v>1</v>
       </c>
@@ -1470,49 +1509,52 @@
         <v>1</v>
       </c>
       <c r="M12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="13">
         <v>0</v>
       </c>
       <c r="O12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
         <v>1</v>
       </c>
+      <c r="Q12" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
       <c r="K13" s="9">
         <v>1</v>
       </c>
@@ -1520,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -1529,45 +1571,48 @@
         <v>0</v>
       </c>
       <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
@@ -1579,31 +1624,34 @@
         <v>0</v>
       </c>
       <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
       <c r="H15" s="9">
         <v>1</v>
       </c>
@@ -1631,38 +1679,41 @@
       <c r="P15" s="9">
         <v>1</v>
       </c>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
       <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
         <v>4</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <v>2</v>
       </c>
-      <c r="J16" s="13">
-        <v>1</v>
-      </c>
       <c r="K16" s="13">
         <v>1</v>
       </c>
@@ -1673,45 +1724,48 @@
         <v>1</v>
       </c>
       <c r="N16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="13">
         <v>1</v>
       </c>
+      <c r="Q16" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
       <c r="H17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="9">
         <v>1</v>
@@ -1720,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
@@ -1729,31 +1783,34 @@
         <v>0</v>
       </c>
       <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11">
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>2</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
       <c r="H18" s="13">
         <v>1</v>
       </c>
@@ -1767,13 +1824,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="13">
         <v>0</v>
       </c>
       <c r="N18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="13">
         <v>1</v>
@@ -1781,29 +1838,32 @@
       <c r="P18" s="13">
         <v>1</v>
       </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="13">
-        <v>999</v>
-      </c>
       <c r="H19" s="13">
         <v>999</v>
       </c>
@@ -1831,46 +1891,49 @@
       <c r="P19" s="13">
         <v>999</v>
       </c>
+      <c r="Q19" s="13">
+        <v>999</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
       <c r="H20" s="13">
         <v>1</v>
       </c>
       <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="J20" s="13">
-        <v>1</v>
-      </c>
       <c r="K20" s="13">
         <v>1</v>
       </c>
       <c r="L20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="13">
         <v>1</v>
@@ -1879,13 +1942,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:P5 F8:P12 F16:P16 F18:P20">
+  <conditionalFormatting sqref="G5:Q5 G8:Q12 G16:Q16 G18:Q20">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(F5))=0</formula>
+      <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/peer mock 4.xlsx
+++ b/data/peer mock 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1103E152-8856-4FAD-9F7B-29A62E5C5F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4AB0C5-8A54-45E8-876C-157E4145CF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D32DF37B-2E3D-425B-BDE4-FC1E624AEA2C}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>Country</t>
   </si>
@@ -289,7 +289,13 @@
     <t>Theme</t>
   </si>
   <si>
-    <t>Financing</t>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>SnapshotURL</t>
+  </si>
+  <si>
+    <t>https://education-profiles.org/fr/themes/~leadership-scolaire</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -504,6 +510,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,15 +891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8BA48F-630F-4002-AF01-0F71B0682EA8}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -942,8 +951,11 @@
       <c r="Q1" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="R1" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -993,8 +1005,11 @@
       <c r="Q2" s="10">
         <v>1</v>
       </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1046,8 +1061,11 @@
       <c r="Q3" s="9">
         <v>1</v>
       </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1099,8 +1117,11 @@
       <c r="Q4" s="9">
         <v>1</v>
       </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1152,8 +1173,11 @@
       <c r="Q5" s="13">
         <v>1</v>
       </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1205,8 +1229,11 @@
       <c r="Q6" s="9">
         <v>0</v>
       </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1258,8 +1285,11 @@
       <c r="Q7" s="10">
         <v>1</v>
       </c>
+      <c r="R7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1311,8 +1341,11 @@
       <c r="Q8" s="13">
         <v>999</v>
       </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1364,8 +1397,11 @@
       <c r="Q9" s="13">
         <v>1</v>
       </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1417,8 +1453,11 @@
       <c r="Q10" s="13">
         <v>1</v>
       </c>
+      <c r="R10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1470,8 +1509,11 @@
       <c r="Q11" s="13">
         <v>999</v>
       </c>
+      <c r="R11" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1523,8 +1565,11 @@
       <c r="Q12" s="13">
         <v>1</v>
       </c>
+      <c r="R12" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1576,8 +1621,11 @@
       <c r="Q13" s="9">
         <v>1</v>
       </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1629,8 +1677,11 @@
       <c r="Q14" s="9">
         <v>1</v>
       </c>
+      <c r="R14" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1682,8 +1733,11 @@
       <c r="Q15" s="9">
         <v>1</v>
       </c>
+      <c r="R15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1735,8 +1789,11 @@
       <c r="Q16" s="13">
         <v>1</v>
       </c>
+      <c r="R16" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1788,8 +1845,11 @@
       <c r="Q17" s="9">
         <v>1</v>
       </c>
+      <c r="R17" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1841,8 +1901,11 @@
       <c r="Q18" s="13">
         <v>1</v>
       </c>
+      <c r="R18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1894,8 +1957,11 @@
       <c r="Q19" s="13">
         <v>999</v>
       </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1946,6 +2012,9 @@
       </c>
       <c r="Q20" s="13">
         <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
